--- a/HEALTHCARE WASTE ASSESMENT TOOL 2024_FINAL.xlsx
+++ b/HEALTHCARE WASTE ASSESMENT TOOL 2024_FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancygilbert/Documents/Calliope/A-TRANSFORM Int'l/CTCs/Malawi/WASH in HCF 2018-9/Monitoring &amp; Evaluation/2024 work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/dri_team.mWater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FF358B-8EA0-9F4B-83B4-C4FD5E3C883A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E015FF1-EFE9-C946-815E-9ED2AF39B0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="12920" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{7B4C8017-5C66-41AA-96FC-CDE1057C6E34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{7B4C8017-5C66-41AA-96FC-CDE1057C6E34}"/>
   </bookViews>
   <sheets>
     <sheet name="FACILITY DETAILS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="116">
   <si>
     <t xml:space="preserve">Name of Facility </t>
   </si>
@@ -2302,20 +2301,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2327,6 +2317,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2335,9 +2329,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2677,7 +2676,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2863,7 +2862,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1825096544"/>
@@ -2931,7 +2930,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2968,7 +2967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1825111904"/>
@@ -3009,7 +3008,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3071,7 +3070,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3318,7 +3317,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3473,7 +3472,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570518271"/>
@@ -3548,7 +3547,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3582,7 +3581,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570525471"/>
@@ -3630,7 +3629,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3692,7 +3691,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3939,7 +3938,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4094,7 +4093,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570529791"/>
@@ -4169,7 +4168,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4203,7 +4202,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570542751"/>
@@ -4251,7 +4250,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4313,7 +4312,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4560,7 +4559,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4715,7 +4714,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1654436415"/>
@@ -4790,7 +4789,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4824,7 +4823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1654435935"/>
@@ -4872,7 +4871,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4934,7 +4933,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5181,7 +5180,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5336,7 +5335,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2043304448"/>
@@ -5411,7 +5410,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5445,7 +5444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2043303008"/>
@@ -5493,7 +5492,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5555,7 +5554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5802,7 +5801,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5957,7 +5956,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2043299168"/>
@@ -6032,7 +6031,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6066,7 +6065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2043301088"/>
@@ -6114,7 +6113,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6439,7 +6438,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6625,7 +6624,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1825096544"/>
@@ -6675,7 +6674,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1825111904"/>
@@ -6716,7 +6715,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6786,7 +6785,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6971,7 +6970,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7102,7 +7101,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="66127439"/>
@@ -7149,7 +7148,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="66130799"/>
@@ -7197,7 +7196,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7259,7 +7258,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7508,7 +7507,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7663,7 +7662,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570520191"/>
@@ -7738,7 +7737,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7772,7 +7771,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570534591"/>
@@ -7820,7 +7819,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7882,7 +7881,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8129,7 +8128,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8284,7 +8283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570534111"/>
@@ -8359,7 +8358,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8393,7 +8392,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570533631"/>
@@ -8441,7 +8440,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8503,7 +8502,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8750,7 +8749,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8905,7 +8904,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1654438815"/>
@@ -8980,7 +8979,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9014,7 +9013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1654435455"/>
@@ -9062,7 +9061,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9124,7 +9123,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9371,7 +9370,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9526,7 +9525,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1654442175"/>
@@ -9601,7 +9600,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9635,7 +9634,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1654430175"/>
@@ -9683,7 +9682,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9745,7 +9744,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9992,7 +9991,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10147,7 +10146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570540831"/>
@@ -10222,7 +10221,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10256,7 +10255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570542271"/>
@@ -10304,7 +10303,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10366,7 +10365,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10613,7 +10612,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10768,7 +10767,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570544191"/>
@@ -10843,7 +10842,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10877,7 +10876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570545151"/>
@@ -10925,7 +10924,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10987,7 +10986,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-HT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11234,7 +11233,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-HT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11389,7 +11388,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1589203423"/>
@@ -11464,7 +11463,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-HT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11498,7 +11497,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-HT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1589199103"/>
@@ -11546,7 +11545,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-HT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22932,13 +22931,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>172574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>17926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'FACILITY DETAILS'!D5">
       <xdr:nvSpPr>
@@ -22953,8 +22952,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="1476375"/>
-          <a:ext cx="1747086" cy="666750"/>
+          <a:off x="66675" y="1482679"/>
+          <a:ext cx="1860717" cy="593984"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24339,8 +24338,8 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <rv s="0">
-    <v>0</v>
     <v>5</v>
+    <v>rId1</v>
   </rv>
 </rvData>
 </file>
@@ -24348,16 +24347,10 @@
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
 <rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
     <k n="CalcOrigin" t="i"/>
+    <k n="_rvRel:LocalImageIdentifier" t="s"/>
   </s>
 </rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24683,7 +24676,7 @@
   <dimension ref="C4:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24729,19 +24722,15 @@
       </c>
       <c r="D10" s="72"/>
     </row>
-    <row r="11" spans="3:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="71"/>
+    </row>
+    <row r="12" spans="3:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="146"/>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="3:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="146"/>
@@ -24755,37 +24744,27 @@
       <c r="C15" s="146"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="3:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="146"/>
-      <c r="D16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="3:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="147"/>
-      <c r="D17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="3:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="3:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="146"/>
-      <c r="D19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="3:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="147"/>
-      <c r="D20" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -24880,27 +24859,27 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
@@ -24915,30 +24894,30 @@
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -24950,7 +24929,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -24962,7 +24941,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -24974,7 +24953,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -24998,30 +24977,30 @@
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -25033,7 +25012,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -25045,7 +25024,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -25069,30 +25048,30 @@
       <c r="F21" s="140"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -25104,7 +25083,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -25128,30 +25107,30 @@
       <c r="F26" s="140"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -25163,7 +25142,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -25175,7 +25154,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -25187,7 +25166,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -25199,7 +25178,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -25223,30 +25202,30 @@
       <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -25258,7 +25237,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -25270,7 +25249,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -25282,7 +25261,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -25308,6 +25287,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -25316,22 +25311,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{09A930E6-40B7-4361-B3E0-D2939A984A03}">
@@ -25428,27 +25407,27 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
@@ -25463,30 +25442,30 @@
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -25498,7 +25477,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -25510,7 +25489,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -25522,7 +25501,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -25546,30 +25525,30 @@
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -25581,7 +25560,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -25593,7 +25572,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -25617,30 +25596,30 @@
       <c r="F21" s="140"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -25652,7 +25631,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -25676,30 +25655,30 @@
       <c r="F26" s="140"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -25711,7 +25690,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -25723,7 +25702,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -25735,7 +25714,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -25747,7 +25726,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -25771,30 +25750,30 @@
       <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -25806,7 +25785,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -25818,7 +25797,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -25830,7 +25809,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -25856,6 +25835,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -25864,22 +25859,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{948C8232-6210-4195-ADF9-131F40701ED5}">
@@ -25978,27 +25957,27 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
@@ -26013,30 +25992,30 @@
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -26048,7 +26027,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -26060,7 +26039,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -26072,7 +26051,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -26096,30 +26075,30 @@
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -26131,7 +26110,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -26143,7 +26122,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -26167,30 +26146,30 @@
       <c r="F21" s="140"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -26202,7 +26181,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -26226,30 +26205,30 @@
       <c r="F26" s="140"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -26261,7 +26240,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -26273,7 +26252,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -26285,7 +26264,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -26297,7 +26276,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -26321,30 +26300,30 @@
       <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -26356,7 +26335,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -26368,7 +26347,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -26380,7 +26359,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -26406,6 +26385,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -26414,22 +26409,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{0436C994-8A70-43C7-9ECF-D3F69DD3471D}">
@@ -26528,27 +26507,27 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
@@ -26563,30 +26542,30 @@
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -26598,7 +26577,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -26610,7 +26589,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -26622,7 +26601,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -26646,30 +26625,30 @@
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -26681,7 +26660,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -26693,7 +26672,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -26717,30 +26696,30 @@
       <c r="F21" s="140"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -26752,7 +26731,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -26776,30 +26755,30 @@
       <c r="F26" s="140"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -26811,7 +26790,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -26823,7 +26802,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -26835,7 +26814,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -26847,7 +26826,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -26871,30 +26850,30 @@
       <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -26906,7 +26885,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -26918,7 +26897,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -26930,7 +26909,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -26956,6 +26935,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -26964,22 +26959,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{B79ADD14-27B7-4976-9BB7-6AFF17A2F345}">
@@ -27077,27 +27056,27 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
@@ -27112,30 +27091,30 @@
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -27147,7 +27126,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -27159,7 +27138,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -27171,7 +27150,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -27195,30 +27174,30 @@
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -27230,7 +27209,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -27242,7 +27221,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -27266,30 +27245,30 @@
       <c r="F21" s="140"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -27301,7 +27280,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -27325,30 +27304,30 @@
       <c r="F26" s="140"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -27360,7 +27339,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -27372,7 +27351,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -27384,7 +27363,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -27396,7 +27375,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -27420,30 +27399,30 @@
       <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -27455,7 +27434,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -27467,7 +27446,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -27479,7 +27458,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -27505,6 +27484,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -27513,22 +27508,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{B70596AA-1B46-4186-9C7F-65E1AFA15AE7}">
@@ -27627,27 +27606,27 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
@@ -27662,30 +27641,30 @@
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -27697,7 +27676,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -27709,7 +27688,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -27721,7 +27700,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -27745,30 +27724,30 @@
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -27780,7 +27759,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -27792,7 +27771,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -27816,30 +27795,30 @@
       <c r="F21" s="140"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -27851,7 +27830,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -27875,30 +27854,30 @@
       <c r="F26" s="140"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -27910,7 +27889,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -27922,7 +27901,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -27934,7 +27913,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -27946,7 +27925,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -27970,30 +27949,30 @@
       <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -28005,7 +27984,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -28017,7 +27996,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -28029,7 +28008,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -28055,6 +28034,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -28063,22 +28058,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{9B4E8AFB-75BB-410F-B7AB-5EEE8C234355}">
@@ -28177,27 +28156,27 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:9" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
       <c r="I7" s="62"/>
     </row>
     <row r="8" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -28213,30 +28192,30 @@
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:9" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -28248,7 +28227,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -28260,7 +28239,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -28272,7 +28251,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -28296,30 +28275,30 @@
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -28331,7 +28310,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -28343,7 +28322,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -28367,30 +28346,30 @@
       <c r="F21" s="140"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -28402,7 +28381,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -28426,30 +28405,30 @@
       <c r="F26" s="140"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -28461,7 +28440,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -28473,7 +28452,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -28485,7 +28464,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -28497,7 +28476,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -28521,30 +28500,30 @@
       <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -28556,7 +28535,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -28568,7 +28547,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -28580,7 +28559,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -28606,6 +28585,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -28614,22 +28609,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{F066EAEB-E71A-46FA-AC55-C04823C787A1}">
@@ -28725,27 +28704,27 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
@@ -28760,30 +28739,30 @@
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -28795,7 +28774,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -28807,7 +28786,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -28819,7 +28798,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -28843,30 +28822,30 @@
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -28878,7 +28857,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -28890,7 +28869,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -28914,30 +28893,30 @@
       <c r="F21" s="140"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -28949,7 +28928,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -28973,30 +28952,30 @@
       <c r="F26" s="140"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -29008,7 +28987,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -29020,7 +28999,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -29032,7 +29011,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -29044,7 +29023,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -29068,30 +29047,30 @@
       <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -29103,7 +29082,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -29115,7 +29094,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -29127,7 +29106,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -29153,6 +29132,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -29161,22 +29156,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{C9F16E32-D12C-4050-8472-931C3BB9AA15}">
@@ -29195,7 +29174,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29608,7 +29587,7 @@
       <c r="N32" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -29622,8 +29601,8 @@
   </sheetPr>
   <dimension ref="A5:D189"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -31606,8 +31585,8 @@
   </sheetPr>
   <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32154,8 +32133,8 @@
   </sheetPr>
   <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -32230,27 +32209,27 @@
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
@@ -32265,30 +32244,30 @@
       <c r="F8" s="44"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -32300,7 +32279,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -32312,7 +32291,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -32324,7 +32303,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -32348,30 +32327,30 @@
       <c r="F15" s="46"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -32383,7 +32362,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -32395,7 +32374,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -32419,30 +32398,30 @@
       <c r="F21" s="43"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -32454,7 +32433,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -32478,30 +32457,30 @@
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -32513,7 +32492,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -32525,7 +32504,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -32537,7 +32516,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -32549,7 +32528,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -32573,30 +32552,30 @@
       <c r="F34" s="51"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -32608,7 +32587,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -32620,7 +32599,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -32632,7 +32611,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -32658,6 +32637,23 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F35:F36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="D9:D10"/>
@@ -32665,23 +32661,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{326B1F99-E530-4B9D-B1ED-38A50E6D3408}">
@@ -32774,26 +32753,26 @@
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
       <c r="F6" s="181"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
+      <c r="E7" s="174"/>
       <c r="F7" s="182"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -32809,30 +32788,30 @@
       <c r="F8" s="44"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
       <c r="F9" s="181"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
+      <c r="E10" s="174"/>
       <c r="F10" s="182"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -32844,7 +32823,7 @@
       <c r="F11" s="45"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -32856,7 +32835,7 @@
       <c r="F12" s="45"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -32868,7 +32847,7 @@
       <c r="F13" s="45"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -32892,30 +32871,30 @@
       <c r="F15" s="46"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
       <c r="F16" s="181"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
+      <c r="E17" s="174"/>
       <c r="F17" s="182"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -32927,7 +32906,7 @@
       <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -32939,7 +32918,7 @@
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -32963,30 +32942,30 @@
       <c r="F21" s="43"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
       <c r="F22" s="181"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
+      <c r="E23" s="174"/>
       <c r="F23" s="182"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -32998,7 +32977,7 @@
       <c r="F24" s="42"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -33022,30 +33001,30 @@
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
       <c r="F27" s="181"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
+      <c r="E28" s="174"/>
       <c r="F28" s="182"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -33057,7 +33036,7 @@
       <c r="F29" s="42"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -33069,7 +33048,7 @@
       <c r="F30" s="42"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -33081,7 +33060,7 @@
       <c r="F31" s="42"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -33093,7 +33072,7 @@
       <c r="F32" s="42"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -33117,30 +33096,30 @@
       <c r="F34" s="51"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
       <c r="F35" s="181"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
       <c r="F36" s="182"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -33152,7 +33131,7 @@
       <c r="F37" s="45"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -33164,7 +33143,7 @@
       <c r="F38" s="42"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -33176,7 +33155,7 @@
       <c r="F39" s="56"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -33202,6 +33181,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -33210,22 +33205,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{BDC13877-58EB-48B2-8B0A-8CBDE1DC67CE}">
@@ -33319,27 +33298,27 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
@@ -33354,30 +33333,30 @@
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -33389,7 +33368,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -33401,7 +33380,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -33413,7 +33392,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -33437,30 +33416,30 @@
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -33472,7 +33451,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -33484,7 +33463,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -33508,30 +33487,30 @@
       <c r="F21" s="140"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -33543,7 +33522,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -33567,30 +33546,30 @@
       <c r="F26" s="140"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -33602,7 +33581,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -33614,7 +33593,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -33626,7 +33605,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -33638,7 +33617,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -33662,30 +33641,30 @@
       <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -33697,7 +33676,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -33709,7 +33688,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -33721,7 +33700,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -33747,6 +33726,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -33755,22 +33750,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{24A13F36-3A6A-464D-A538-0F145BA1A8F4}">
@@ -33864,27 +33843,27 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176" t="str">
+      <c r="D6" s="171"/>
+      <c r="E6" s="173" t="str">
         <f>IF(D6=$H$3,100,IF(D6=$H$4,0,IF(D6=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="176"/>
     </row>
     <row r="7" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="177"/>
     </row>
     <row r="8" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
@@ -33899,30 +33878,30 @@
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:8" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="180" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176" t="str">
+      <c r="D9" s="171"/>
+      <c r="E9" s="173" t="str">
         <f>IF(D9=$H$3,20,IF(D9=$H$4,0,IF(D9=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
@@ -33934,7 +33913,7 @@
       <c r="F11" s="119"/>
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="36" t="s">
         <v>92</v>
       </c>
@@ -33946,7 +33925,7 @@
       <c r="F12" s="119"/>
     </row>
     <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="36" t="s">
         <v>93</v>
       </c>
@@ -33958,7 +33937,7 @@
       <c r="F13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
@@ -33982,30 +33961,30 @@
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176" t="str">
+      <c r="D16" s="171"/>
+      <c r="E16" s="173" t="str">
         <f>IF(D16=$H$3,30,IF(D16=$H$4,0,IF(D16=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="47" t="s">
         <v>79</v>
       </c>
@@ -34017,7 +33996,7 @@
       <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="47" t="s">
         <v>80</v>
       </c>
@@ -34029,7 +34008,7 @@
       <c r="F19" s="121"/>
     </row>
     <row r="20" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="47" t="s">
         <v>96</v>
       </c>
@@ -34053,30 +34032,30 @@
       <c r="F21" s="140"/>
     </row>
     <row r="22" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="180" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="176" t="str">
+      <c r="D22" s="171"/>
+      <c r="E22" s="173" t="str">
         <f>IF(D22=$H$3,30,IF(D22=$H$4,0,IF(D22=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="47" t="s">
         <v>97</v>
       </c>
@@ -34088,7 +34067,7 @@
       <c r="F24" s="121"/>
     </row>
     <row r="25" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="47" t="s">
         <v>98</v>
       </c>
@@ -34112,30 +34091,30 @@
       <c r="F26" s="140"/>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="176" t="str">
+      <c r="D27" s="171"/>
+      <c r="E27" s="173" t="str">
         <f>IF(D27=$H$3,11,IF(D27=$H$4,0,IF(D27=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
     </row>
     <row r="28" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="175"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="47" t="s">
         <v>99</v>
       </c>
@@ -34147,7 +34126,7 @@
       <c r="F29" s="121"/>
     </row>
     <row r="30" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="47" t="s">
         <v>100</v>
       </c>
@@ -34159,7 +34138,7 @@
       <c r="F30" s="121"/>
     </row>
     <row r="31" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="47" t="s">
         <v>83</v>
       </c>
@@ -34171,7 +34150,7 @@
       <c r="F31" s="121"/>
     </row>
     <row r="32" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="47" t="s">
         <v>101</v>
       </c>
@@ -34183,7 +34162,7 @@
       <c r="F32" s="121"/>
     </row>
     <row r="33" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="48" t="s">
         <v>84</v>
       </c>
@@ -34207,30 +34186,30 @@
       <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="176" t="str">
+      <c r="D35" s="171"/>
+      <c r="E35" s="173" t="str">
         <f>IF(D35=$H$3,10,IF(D35=$H$4,0,IF(D35=$H$5,"-","")))</f>
         <v>-</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="176"/>
     </row>
     <row r="36" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="47" t="s">
         <v>103</v>
       </c>
@@ -34242,7 +34221,7 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
@@ -34254,7 +34233,7 @@
       <c r="F38" s="121"/>
     </row>
     <row r="39" spans="2:6" ht="61" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
@@ -34266,7 +34245,7 @@
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="172"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
@@ -34292,6 +34271,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -34300,22 +34295,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 D37:D41 D18:D22 D24:D27 D29:D35 D8:D9 D11:D16" xr:uid="{679AEA5B-E370-467B-8826-B6354DCE72BC}">
